--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.60417087994352</v>
+        <v>105.910120761279</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.6544267198293</v>
+        <v>144.9108996502852</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.9982849416896</v>
+        <v>131.0808067714263</v>
       </c>
       <c r="AD2" t="n">
-        <v>81604.17087994353</v>
+        <v>105910.120761279</v>
       </c>
       <c r="AE2" t="n">
-        <v>111654.4267198293</v>
+        <v>144910.8996502852</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516328216064808e-06</v>
+        <v>6.506127825184984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>100998.2849416896</v>
+        <v>131080.8067714263</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.4330946691348</v>
+        <v>87.82429589649082</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.79195859690857</v>
+        <v>120.1650761800137</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.50865588171932</v>
+        <v>108.6966899621682</v>
       </c>
       <c r="AD3" t="n">
-        <v>63433.0946691348</v>
+        <v>87824.29589649082</v>
       </c>
       <c r="AE3" t="n">
-        <v>86791.95859690857</v>
+        <v>120165.0761800137</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.065483884211912e-06</v>
+        <v>7.522209588134975e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.736979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>78508.65588171931</v>
+        <v>108696.6899621682</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.90504088205596</v>
+        <v>85.43246514749009</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.70120799245301</v>
+        <v>116.8924678291071</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.61744358056542</v>
+        <v>105.7364147591365</v>
       </c>
       <c r="AD2" t="n">
-        <v>61905.04088205595</v>
+        <v>85432.46514749009</v>
       </c>
       <c r="AE2" t="n">
-        <v>84701.20799245301</v>
+        <v>116892.4678291071</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.109076196783562e-06</v>
+        <v>7.832533394655056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>76617.44358056542</v>
+        <v>105736.4147591365</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.2474742879199</v>
+        <v>83.77489855335403</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.4332522516801</v>
+        <v>114.6245120883342</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.56593835259527</v>
+        <v>103.6849095311663</v>
       </c>
       <c r="AD3" t="n">
-        <v>60247.4742879199</v>
+        <v>83774.89855335404</v>
       </c>
       <c r="AE3" t="n">
-        <v>82433.2522516801</v>
+        <v>114624.5120883342</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.308236230814053e-06</v>
+        <v>8.212163156362935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>74565.93835259527</v>
+        <v>103684.9095311663</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.45941820800454</v>
+        <v>73.38630319038603</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.77729033836</v>
+        <v>100.4103776002472</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.92696648854259</v>
+        <v>90.82735208895474</v>
       </c>
       <c r="AD2" t="n">
-        <v>52459.41820800454</v>
+        <v>73386.30319038602</v>
       </c>
       <c r="AE2" t="n">
-        <v>71777.29033836001</v>
+        <v>100410.3776002472</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.818114650338059e-06</v>
+        <v>1.026132329047843e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.639322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>64926.96648854259</v>
+        <v>90827.35208895474</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.25920831307253</v>
+        <v>77.20280040547293</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.60808667813407</v>
+        <v>105.6322774619005</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.39215700220628</v>
+        <v>95.55088115679598</v>
       </c>
       <c r="AD2" t="n">
-        <v>55259.20831307254</v>
+        <v>77202.80040547292</v>
       </c>
       <c r="AE2" t="n">
-        <v>75608.08667813407</v>
+        <v>105632.2774619005</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.679294568823258e-06</v>
+        <v>9.500585755000672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.587239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68392.15700220628</v>
+        <v>95550.88115679598</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.79032445412096</v>
+        <v>70.88330104810767</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.49356262907813</v>
+        <v>96.9856596445225</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.86119454660186</v>
+        <v>87.72948440830147</v>
       </c>
       <c r="AD2" t="n">
-        <v>50790.32445412096</v>
+        <v>70883.30104810766</v>
       </c>
       <c r="AE2" t="n">
-        <v>69493.56262907812</v>
+        <v>96985.6596445225</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.751913717806799e-06</v>
+        <v>1.058158368656541e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.834635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>62861.19454660186</v>
+        <v>87729.48440830148</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.55169828072396</v>
+        <v>87.30615893590731</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.95423729070683</v>
+        <v>119.4561383319543</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.65544692474109</v>
+        <v>108.0554121473269</v>
       </c>
       <c r="AD2" t="n">
-        <v>63551.69828072396</v>
+        <v>87306.15893590731</v>
       </c>
       <c r="AE2" t="n">
-        <v>86954.23729070683</v>
+        <v>119456.1383319543</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969147913281378e-06</v>
+        <v>7.504720669822542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.92578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>78655.44692474109</v>
+        <v>108055.4121473269</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.03693236934834</v>
+        <v>84.79139302453169</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.51342362712244</v>
+        <v>116.0153246683699</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.54301968799578</v>
+        <v>104.9429849105816</v>
       </c>
       <c r="AD3" t="n">
-        <v>61036.93236934834</v>
+        <v>84791.39302453169</v>
       </c>
       <c r="AE3" t="n">
-        <v>83513.42362712244</v>
+        <v>116015.3246683699</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.248693008917383e-06</v>
+        <v>8.033274380392793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.665364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>75543.01968799578</v>
+        <v>104942.9849105816</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.74705675920359</v>
+        <v>78.97514200445626</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.06611774317052</v>
+        <v>108.0572734278212</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.56998299717338</v>
+        <v>97.74443891123325</v>
       </c>
       <c r="AD2" t="n">
-        <v>49747.05675920359</v>
+        <v>78975.14200445625</v>
       </c>
       <c r="AE2" t="n">
-        <v>68066.11774317053</v>
+        <v>108057.2734278212</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.678737480318912e-06</v>
+        <v>1.072631797086285e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>61569.98299717338</v>
+        <v>97744.43891123324</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.84263875591039</v>
+        <v>80.63322008922407</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.14285018293039</v>
+        <v>110.3259290126419</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.58956763917769</v>
+        <v>99.79657719111744</v>
       </c>
       <c r="AD2" t="n">
-        <v>57842.63875591039</v>
+        <v>80633.22008922407</v>
       </c>
       <c r="AE2" t="n">
-        <v>79142.85018293039</v>
+        <v>110325.9290126419</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.494496045786562e-06</v>
+        <v>8.809150136102132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71589.56763917769</v>
+        <v>99796.57719111744</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.93061392111996</v>
+        <v>80.72119525443364</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.26322168516043</v>
+        <v>110.4463005148719</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.69845105417741</v>
+        <v>99.90546060611715</v>
       </c>
       <c r="AD3" t="n">
-        <v>57930.61392111996</v>
+        <v>80721.19525443364</v>
       </c>
       <c r="AE3" t="n">
-        <v>79263.22168516043</v>
+        <v>110446.3005148719</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.489097445982867e-06</v>
+        <v>8.798568955095185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>71698.45105417741</v>
+        <v>99905.46060611715</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.01126347335489</v>
+        <v>83.30301800536373</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.11005819430673</v>
+        <v>113.9788643046737</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.27358948245181</v>
+        <v>103.1008814658058</v>
       </c>
       <c r="AD2" t="n">
-        <v>60011.26347335488</v>
+        <v>83303.01800536373</v>
       </c>
       <c r="AE2" t="n">
-        <v>82110.05819430674</v>
+        <v>113978.8643046737</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.300771615271377e-06</v>
+        <v>8.269106836382578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.69140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>74273.58948245182</v>
+        <v>103100.8814658058</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.52112276242313</v>
+        <v>82.81287729443197</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.43942605012818</v>
+        <v>113.3082321604951</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.66696152887533</v>
+        <v>102.4942535122293</v>
       </c>
       <c r="AD3" t="n">
-        <v>59521.12276242313</v>
+        <v>82812.87729443196</v>
       </c>
       <c r="AE3" t="n">
-        <v>81439.42605012818</v>
+        <v>113308.2321604951</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364075611535517e-06</v>
+        <v>8.390821625054311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.639322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73666.96152887533</v>
+        <v>102494.2535122293</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.69801301364109</v>
+        <v>103.7984725463593</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.0463374334056</v>
+        <v>142.0216494032892</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.63910803628504</v>
+        <v>128.4673025129144</v>
       </c>
       <c r="AD2" t="n">
-        <v>79698.01301364109</v>
+        <v>103798.4725463593</v>
       </c>
       <c r="AE2" t="n">
-        <v>109046.3374334056</v>
+        <v>142021.6494032892</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.637750319540021e-06</v>
+        <v>6.77685293494906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.212239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>98639.10803628503</v>
+        <v>128467.3025129144</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.23068585853469</v>
+        <v>86.41639673727344</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.14676981571344</v>
+        <v>118.2387264382462</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.02048160876397</v>
+        <v>106.9541883361056</v>
       </c>
       <c r="AD3" t="n">
-        <v>62230.68585853469</v>
+        <v>86416.39673727345</v>
       </c>
       <c r="AE3" t="n">
-        <v>85146.76981571344</v>
+        <v>118238.7264382462</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.174732174512513e-06</v>
+        <v>7.777209402609234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>77020.48160876398</v>
+        <v>106954.1883361056</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.04956587471012</v>
+        <v>78.29053285292791</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.68948876208083</v>
+        <v>107.1205609838764</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.37035158901885</v>
+        <v>96.89712498825408</v>
       </c>
       <c r="AD2" t="n">
-        <v>56049.56587471012</v>
+        <v>78290.53285292791</v>
       </c>
       <c r="AE2" t="n">
-        <v>76689.48876208083</v>
+        <v>107120.5609838764</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.63452727848713e-06</v>
+        <v>9.289897671237624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>69370.35158901886</v>
+        <v>96897.12498825407</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.55646019828475</v>
+        <v>74.84695821202855</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.27831158753746</v>
+        <v>102.4089102404091</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.2847323763956</v>
+        <v>92.63514757889843</v>
       </c>
       <c r="AD2" t="n">
-        <v>53556.46019828475</v>
+        <v>74846.95821202855</v>
       </c>
       <c r="AE2" t="n">
-        <v>73278.31158753746</v>
+        <v>102408.9102404091</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.755230232196009e-06</v>
+        <v>9.948239027947326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>66284.73237639559</v>
+        <v>92635.14757889842</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.59522537625134</v>
+        <v>72.12599578203906</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.59486358045891</v>
+        <v>98.68596940330896</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.85738888086881</v>
+        <v>89.26751899010965</v>
       </c>
       <c r="AD2" t="n">
-        <v>51595.22537625134</v>
+        <v>72125.99578203906</v>
       </c>
       <c r="AE2" t="n">
-        <v>70594.8635804589</v>
+        <v>98685.96940330896</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.814511372305864e-06</v>
+        <v>1.04660533257284e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>63857.38888086881</v>
+        <v>89267.51899010965</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.49519710961438</v>
+        <v>77.43470044567469</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.03570931131051</v>
+        <v>105.9495733276121</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.39721354548115</v>
+        <v>95.83789475041176</v>
       </c>
       <c r="AD2" t="n">
-        <v>58495.19710961438</v>
+        <v>77434.70044567469</v>
       </c>
       <c r="AE2" t="n">
-        <v>80035.70931131051</v>
+        <v>105949.5733276121</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.445046466177043e-06</v>
+        <v>1.057266287391502e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72397.21354548115</v>
+        <v>95837.89475041177</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.43278751249174</v>
+        <v>81.47930011479859</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.95031774721024</v>
+        <v>111.4835730300487</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.31997163241077</v>
+        <v>100.8437372882669</v>
       </c>
       <c r="AD2" t="n">
-        <v>58432.78751249174</v>
+        <v>81479.30011479859</v>
       </c>
       <c r="AE2" t="n">
-        <v>79950.31774721024</v>
+        <v>111483.5730300487</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457076907592938e-06</v>
+        <v>8.649306260261048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>72319.97163241077</v>
+        <v>100843.7372882669</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.56265596889685</v>
+        <v>81.60916857120368</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.12800949865556</v>
+        <v>111.661264781494</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.48070473249015</v>
+        <v>101.0044703883463</v>
       </c>
       <c r="AD3" t="n">
-        <v>58562.65596889685</v>
+        <v>81609.16857120369</v>
       </c>
       <c r="AE3" t="n">
-        <v>80128.00949865556</v>
+        <v>111661.264781494</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.448583298227549e-06</v>
+        <v>8.632823747129825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.600260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72480.70473249015</v>
+        <v>101004.4703883463</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.53322605960514</v>
+        <v>101.4216361218332</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.084380419235</v>
+        <v>138.7695569486317</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.95983604241314</v>
+        <v>125.525585197788</v>
       </c>
       <c r="AD2" t="n">
-        <v>77533.22605960513</v>
+        <v>101421.6361218332</v>
       </c>
       <c r="AE2" t="n">
-        <v>106084.380419235</v>
+        <v>138769.5569486317</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.8020716710271e-06</v>
+        <v>7.134177738545095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>95959.83604241314</v>
+        <v>125525.585197788</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.74325007973325</v>
+        <v>85.71691148798185</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.47983867900876</v>
+        <v>117.2816598610547</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.41720144370245</v>
+        <v>106.0884628497895</v>
       </c>
       <c r="AD3" t="n">
-        <v>61743.25007973325</v>
+        <v>85716.91148798185</v>
       </c>
       <c r="AE3" t="n">
-        <v>84479.83867900877</v>
+        <v>117281.6598610547</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.2051153715405e-06</v>
+        <v>7.890445806234301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>76417.20144370245</v>
+        <v>106088.4628497895</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.75870401791109</v>
+        <v>85.07917945292867</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.34220402343179</v>
+        <v>116.4090867559436</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.6246322710462</v>
+        <v>105.2991668971659</v>
       </c>
       <c r="AD2" t="n">
-        <v>66758.70401791109</v>
+        <v>85079.17945292867</v>
       </c>
       <c r="AE2" t="n">
-        <v>91342.2040234318</v>
+        <v>116409.0867559436</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.922977570594131e-06</v>
+        <v>9.811069191125355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.05859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>82624.6322710462</v>
+        <v>105299.1668971659</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.577523613945</v>
+        <v>76.20541756263056</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.67537559898184</v>
+        <v>104.2676142548987</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.54846255937981</v>
+        <v>94.31645949095316</v>
       </c>
       <c r="AD2" t="n">
-        <v>54577.52361394501</v>
+        <v>76205.41756263055</v>
       </c>
       <c r="AE2" t="n">
-        <v>74675.37559898185</v>
+        <v>104267.6142548987</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.697389007054226e-06</v>
+        <v>9.673255478577582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>67548.46255937981</v>
+        <v>94316.45949095316</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.86069764131658</v>
+        <v>79.3833122988634</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.79931502975924</v>
+        <v>108.6157500318313</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.37425759536134</v>
+        <v>98.2496152919836</v>
       </c>
       <c r="AD2" t="n">
-        <v>56860.69764131658</v>
+        <v>79383.3122988634</v>
       </c>
       <c r="AE2" t="n">
-        <v>77799.31502975924</v>
+        <v>108615.7500318313</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.582776163782716e-06</v>
+        <v>9.079323323543373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>70374.25759536134</v>
+        <v>98249.6152919836</v>
       </c>
     </row>
   </sheetData>
